--- a/Time.xlsx
+++ b/Time.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14130" windowHeight="7590"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14130" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book" sheetId="1" r:id="rId1"/>
+    <sheet name="Task" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>嵌入式系统的构建</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +50,26 @@
   </si>
   <si>
     <t>rtos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4412串口通信，AD采集,LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP\UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB控制LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +191,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -768,4 +795,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
+        <v>43947</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
+        <v>43948</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>43949</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>43956</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>